--- a/JPA/ri.jpa.cws.p7.skeleton/ES. checklist_es.xlsx
+++ b/JPA/ri.jpa.cws.p7.skeleton/ES. checklist_es.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmer\Documents\GitHub\RI\JPA\ri.jpa.cws.p7.skeleton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E70822-7903-4B04-B1CD-F8F322EDD521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15672687-1839-4F75-A57F-F6E2662943D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1372,9 @@
       <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="11">
@@ -1926,7 +1928,7 @@
       </c>
       <c r="H4" s="13">
         <f>IF(E4,D2+SUM(D6:D14),0)</f>
-        <v>14.45</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
@@ -1938,7 +1940,7 @@
       </c>
       <c r="D6">
         <f>SUMPRODUCT('check list'!B9:B16,'check list'!D9:D16)</f>
-        <v>4.45</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
